--- a/results.xlsx
+++ b/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>batch_size</t>
   </si>
@@ -35,14 +35,50 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>All default, architecture = nin,1000,nout</t>
+    <t>Hidden Size</t>
+  </si>
+  <si>
+    <t>architecture = [nin,1000,nout], epochs=100</t>
+  </si>
+  <si>
+    <t>batch_size=20, epochs=50</t>
+  </si>
+  <si>
+    <t>Same as left, act=sigmoid</t>
+  </si>
+  <si>
+    <t>Same as left, act=tanh</t>
+  </si>
+  <si>
+    <t>Same as left, lastact=sigmoid</t>
+  </si>
+  <si>
+    <t>2nd Hidden Size</t>
+  </si>
+  <si>
+    <t>1st Hidden = 2000</t>
+  </si>
+  <si>
+    <t>1st Hidden = 2200</t>
+  </si>
+  <si>
+    <t>Compared with 2000 above</t>
+  </si>
+  <si>
+    <t>Compared with 2200 above</t>
+  </si>
+  <si>
+    <t>Splits</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,13 +86,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,23 +143,1855 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE86617"/>
+      <color rgb="FF8FC126"/>
+      <color rgb="FF55A120"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$10:$B$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>2.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.48</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1794627760"/>
+        <c:axId val="1800606304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1794627760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1800606304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1800606304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1794627760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="55A120"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10914.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8FC126"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1926.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="E86617"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1853068960"/>
+        <c:axId val="1853093168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1853068960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1853093168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1853093168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="16000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1853068960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463973</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209826</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>187739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>728869</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>68469</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -350,15 +2257,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:R82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -366,10 +2276,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -377,7 +2287,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -385,7 +2295,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -393,7 +2303,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -401,7 +2311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -409,7 +2319,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>200</v>
       </c>
@@ -417,7 +2327,645 @@
         <v>1.36</v>
       </c>
     </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>100</v>
+      </c>
+      <c r="B10">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F10">
+        <v>500</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="K10">
+        <v>500</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="P10">
+        <v>500</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>200</v>
+      </c>
+      <c r="B11">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>300</v>
+      </c>
+      <c r="B12">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>500</v>
+      </c>
+      <c r="B14">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>600</v>
+      </c>
+      <c r="B15">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>700</v>
+      </c>
+      <c r="B16">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>4.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>900</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1000</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1100</v>
+      </c>
+      <c r="B20">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1200</v>
+      </c>
+      <c r="B21">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1300</v>
+      </c>
+      <c r="B22">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1400</v>
+      </c>
+      <c r="B23">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1500</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>1500</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K24">
+        <v>1500</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4.08</v>
+      </c>
+      <c r="P24">
+        <v>1500</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1600</v>
+      </c>
+      <c r="B25">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1700</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1800</v>
+      </c>
+      <c r="B27">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1900</v>
+      </c>
+      <c r="B28">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B30" s="2">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2200</v>
+      </c>
+      <c r="B31">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2300</v>
+      </c>
+      <c r="B32">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2400</v>
+      </c>
+      <c r="B33">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2500</v>
+      </c>
+      <c r="B34">
+        <v>5.04</v>
+      </c>
+      <c r="F34">
+        <v>2500</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K34">
+        <v>2500</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="P34">
+        <v>2500</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2600</v>
+      </c>
+      <c r="B35">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2700</v>
+      </c>
+      <c r="B36">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2800</v>
+      </c>
+      <c r="B37">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>2900</v>
+      </c>
+      <c r="B38" s="2">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3000</v>
+      </c>
+      <c r="B39">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3100</v>
+      </c>
+      <c r="B40">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3200</v>
+      </c>
+      <c r="B41">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3300</v>
+      </c>
+      <c r="B42">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3400</v>
+      </c>
+      <c r="B43">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3500</v>
+      </c>
+      <c r="B44">
+        <v>5.36</v>
+      </c>
+      <c r="F44">
+        <v>3500</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K44">
+        <v>3500</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="P44">
+        <v>3500</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3600</v>
+      </c>
+      <c r="B45">
+        <v>5.12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3700</v>
+      </c>
+      <c r="B46">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3800</v>
+      </c>
+      <c r="B47">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4000</v>
+      </c>
+      <c r="B49">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4100</v>
+      </c>
+      <c r="B50">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4200</v>
+      </c>
+      <c r="B51">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4300</v>
+      </c>
+      <c r="B52">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4400</v>
+      </c>
+      <c r="B53">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4500</v>
+      </c>
+      <c r="B54">
+        <v>4.2</v>
+      </c>
+      <c r="F54">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="K54">
+        <v>4500</v>
+      </c>
+      <c r="L54" s="2">
+        <v>5.16</v>
+      </c>
+      <c r="P54">
+        <v>4500</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>4600</v>
+      </c>
+      <c r="B55" s="2">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4700</v>
+      </c>
+      <c r="B56">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4800</v>
+      </c>
+      <c r="B57">
+        <v>4.5199999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>4900</v>
+      </c>
+      <c r="B58">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5000</v>
+      </c>
+      <c r="B59">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>3000</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2000</v>
+      </c>
+      <c r="B77" s="1">
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>1500</v>
+      </c>
+      <c r="B78" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="F78">
+        <v>1500</v>
+      </c>
+      <c r="G78" s="1">
+        <v>4</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>1000</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="L79" s="4">
+        <v>10914</v>
+      </c>
+      <c r="M79">
+        <f>L79/(L$79+L$80+L$81)</f>
+        <v>0.71147327249022163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>500</v>
+      </c>
+      <c r="B80" s="1">
+        <v>5</v>
+      </c>
+      <c r="L80" s="4">
+        <v>1926</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ref="M80:M81" si="0">L80/(L$79+L$80+L$81)</f>
+        <v>0.12555410691003913</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>119</v>
+      </c>
+      <c r="B81" s="1">
+        <v>5</v>
+      </c>
+      <c r="L81" s="4">
+        <v>2500</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="0"/>
+        <v>0.16297262059973924</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>batch_size</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>EPOCHS &gt; 50 DOES NOT GIVE BETTER RESULTS DUE TO OVERFITTING, SEE EPOCHS 100 FILE. THAT STOPPED AT 60 EPOCHS AND GIVES INFERIOR PERFORMANCE TO 50 EPOCHS</t>
   </si>
 </sst>
 </file>
@@ -424,11 +427,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1794627760"/>
-        <c:axId val="1800606304"/>
+        <c:axId val="-1678402144"/>
+        <c:axId val="-1678412288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1794627760"/>
+        <c:axId val="-1678402144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -485,13 +488,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800606304"/>
+        <c:crossAx val="-1678412288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1800606304"/>
+        <c:axId val="-1678412288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="2.0"/>
@@ -548,7 +551,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1794627760"/>
+        <c:crossAx val="-1678402144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -706,11 +709,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1853068960"/>
-        <c:axId val="1853093168"/>
+        <c:axId val="-1619059392"/>
+        <c:axId val="-1619055360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1853068960"/>
+        <c:axId val="-1619059392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -719,7 +722,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1853093168"/>
+        <c:crossAx val="-1619055360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -727,7 +730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1853093168"/>
+        <c:axId val="-1619055360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="16000.0"/>
@@ -779,7 +782,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853068960"/>
+        <c:crossAx val="-1619059392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2257,10 +2260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R82"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="115" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2964,6 +2967,11 @@
         <v>12</v>
       </c>
     </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
